--- a/Convocazioni/U19/2_TOR_SAPIENZA.xlsx
+++ b/Convocazioni/U19/2_TOR_SAPIENZA.xlsx
@@ -872,8 +872,10 @@
           <t>RADUNO</t>
         </is>
       </c>
-      <c r="C19" s="33" t="n">
-        <v>0.4319444444444445</v>
+      <c r="C19" s="33" t="inlineStr">
+        <is>
+          <t>10:22:00</t>
+        </is>
       </c>
       <c r="D19" s="7" t="n"/>
     </row>
@@ -1114,7 +1116,11 @@
       <c r="B40" s="12" t="n">
         <v>19</v>
       </c>
-      <c r="C40" s="18" t="inlineStr"/>
+      <c r="C40" s="18" t="inlineStr">
+        <is>
+          <t>DIEGO SANTILLI</t>
+        </is>
+      </c>
       <c r="D40" s="7" t="n"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -1156,7 +1162,7 @@
       </c>
       <c r="C45" s="34" t="inlineStr">
         <is>
-          <t>FLODION MEHQEMEJA, TITO MOZZI, GIANMARCO PERRONI, LEONARDO SCIPIONE , DIEGO SANTILLI, LUDOVICO MAGGIULLI , AMEDEO PANNICELLI, EDOARDO BRACCI</t>
+          <t>FLODION MEHQEMEJA, TITO MOZZI, GIANMARCO PERRONI, LEONARDO SCIPIONE , LUDOVICO MAGGIULLI , AMEDEO PANNICELLI, EDOARDO BRACCI</t>
         </is>
       </c>
       <c r="D45" s="7" t="n"/>
